--- a/tests/xl/from-json.xlsx
+++ b/tests/xl/from-json.xlsx
@@ -25,7 +25,7 @@
     <t>b</t>
   </si>
   <si>
-    <t>#Title=TestGrid - HeaderDepth=1 - IsTransposed=True - DateTime=2024-09-30 08:42:22.076790 - SchemaUrl=None</t>
+    <t>#Title=TestGrid - HeaderDepth=1 - IsTransposed=True - DateTime=2024-10-04 13:00:12.435187 - SchemaUrl=None</t>
   </si>
 </sst>
 </file>

--- a/tests/xl/from-json.xlsx
+++ b/tests/xl/from-json.xlsx
@@ -25,7 +25,7 @@
     <t>b</t>
   </si>
   <si>
-    <t>#Title=TestGrid - HeaderDepth=1 - IsTransposed=True - DateTime=2024-10-04 13:00:12.435187 - SchemaUrl=None</t>
+    <t>#Title=TestGrid - HeaderDepth=1 - IsTransposed=True - DateTime=2025-09-18 09:28:30.496803 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
